--- a/outputs-r202/f__UBA1407.xlsx
+++ b/outputs-r202/f__UBA1407.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +578,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -607,6 +622,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +666,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -685,6 +710,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -724,6 +754,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -763,6 +798,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -802,6 +842,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -841,6 +886,11 @@
           <t>g__UBA1724</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>g__UBA1724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -880,6 +930,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -919,6 +974,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -958,6 +1018,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -997,6 +1062,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1036,6 +1106,11 @@
           <t>g__JAAZKI01</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1075,6 +1150,11 @@
           <t>g__JAAZKI01</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>g__JAAZKI01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1114,6 +1194,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1153,6 +1238,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1192,6 +1282,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1231,6 +1326,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1270,6 +1370,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1309,6 +1414,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1348,6 +1458,11 @@
           <t>g__UBA1407</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>g__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1387,6 +1502,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1426,6 +1546,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1465,6 +1590,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1504,6 +1634,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1543,6 +1678,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1582,6 +1722,11 @@
           <t>g__UBA1407</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>g__UBA1407(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1621,6 +1766,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1660,6 +1810,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1699,6 +1854,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1738,6 +1898,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1777,6 +1942,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1816,6 +1986,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1855,6 +2030,11 @@
           <t>g__JAAZIZ01</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>g__JAAZIZ01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1894,6 +2074,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1933,6 +2118,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1972,6 +2162,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2011,6 +2206,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2050,6 +2250,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2089,6 +2294,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2128,6 +2338,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2167,6 +2382,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2206,6 +2426,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2245,6 +2470,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2284,6 +2514,11 @@
           <t>g__JAAZIY01</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2321,6 +2556,11 @@
       <c r="K48" t="inlineStr">
         <is>
           <t>g__JAAZIY01</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/f__UBA1407.xlsx
+++ b/outputs-r202/f__UBA1407.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,35 +543,35 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG111.fasta</t>
+          <t>RUG118.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>6.132015307282886e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>6.132015307282886e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.267697928950382</v>
       </c>
       <c r="F3" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>6.132015307282884e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>0.1969062131486086</v>
       </c>
       <c r="H3" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>6.132015307282884e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -587,167 +587,167 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG118.fasta</t>
+          <t>RUG199.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.132015307282886e-14</v>
+        <v>1.421612280972967e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>6.132015307282886e-14</v>
+        <v>1.421612280972967e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2676979289503821</v>
+        <v>1.421612280972967e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>0.267697928950382</v>
+        <v>0.3564741889167008</v>
       </c>
       <c r="F4" t="n">
-        <v>6.132015307282884e-14</v>
+        <v>1.421612280972967e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1969062131486086</v>
+        <v>0.2870516221658876</v>
       </c>
       <c r="H4" t="n">
-        <v>6.132015307282884e-14</v>
+        <v>1.421612280972967e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2676979289503821</v>
+        <v>0.3564741889167008</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2676979289503821</v>
+        <v>0.3564741889167008</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>g__JAAZIY01</t>
+          <t>g__JAAZIZ01</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>g__JAAZIY01(reject)</t>
+          <t>g__JAAZIZ01(reject)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG199.fasta</t>
+          <t>RUG227.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.421612280972967e-13</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>1.421612280972967e-13</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.421612280972967e-13</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3564741889167008</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="F5" t="n">
-        <v>1.421612280972967e-13</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2870516221658876</v>
+        <v>0.1488720769777045</v>
       </c>
       <c r="H5" t="n">
-        <v>1.421612280972967e-13</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3564741889167008</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3564741889167008</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>g__JAAZIZ01</t>
+          <t>g__JAAZIY01</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>g__JAAZIZ01(reject)</t>
+          <t>g__JAAZIY01(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG227.fasta</t>
+          <t>RUG303.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>0.2870516221658878</v>
       </c>
       <c r="C6" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>1.421612280972967e-13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2127819807555444</v>
+        <v>1.421612280972967e-13</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2127819807555444</v>
+        <v>1.421612280972966e-13</v>
       </c>
       <c r="F6" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>0.3564741889167007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1488720769777045</v>
+        <v>1.421612280972967e-13</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2127819807555444</v>
+        <v>1.421612280972967e-13</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.3564741889167007</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.3564741889167007</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>g__JAAZIY01</t>
+          <t>g__JAAZKI01</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>g__JAAZIY01(reject)</t>
+          <t>g__JAAZKI01(reject)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG268.fasta</t>
+          <t>RUG308.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="F7" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>0.1488720769777045</v>
       </c>
       <c r="H7" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -763,35 +763,35 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG303.fasta</t>
+          <t>RUG439.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2870516221658878</v>
+        <v>0.04295648289530143</v>
       </c>
       <c r="C8" t="n">
-        <v>1.421612280972967e-13</v>
+        <v>2.226433562800333e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>1.421612280972967e-13</v>
+        <v>2.226433562800333e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>1.421612280972966e-13</v>
+        <v>2.226433562800333e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3564741889167007</v>
+        <v>0.8852196505854292</v>
       </c>
       <c r="G8" t="n">
-        <v>1.421612280972967e-13</v>
+        <v>2.226433562800333e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>1.421612280972967e-13</v>
+        <v>2.226433562800333e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3564741889167007</v>
+        <v>0.07182386651915801</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3564741889167007</v>
+        <v>0.8852196505854292</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -800,146 +800,146 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>g__JAAZKI01(reject)</t>
+          <t>g__JAAZKI01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG308.fasta</t>
+          <t>RUG453.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>0.04295648289530143</v>
       </c>
       <c r="C9" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>2.226433562800333e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2127819807555444</v>
+        <v>2.226433562800333e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2127819807555444</v>
+        <v>2.226433562800333e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>0.8852196505854292</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1488720769777045</v>
+        <v>2.226433562800333e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2127819807555444</v>
+        <v>2.226433562800333e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.07182386651915801</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.8852196505854292</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>g__JAAZIY01</t>
+          <t>g__JAAZKI01</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>g__JAAZIY01(reject)</t>
+          <t>g__JAAZKI01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG439.fasta</t>
+          <t>RUG484.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04295648289530143</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>2.226433562800333e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.226433562800333e-14</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="E10" t="n">
-        <v>2.226433562800333e-14</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8852196505854292</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.226433562800333e-14</v>
+        <v>0.1488720769777045</v>
       </c>
       <c r="H10" t="n">
-        <v>2.226433562800333e-14</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07182386651915801</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8852196505854292</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>g__JAAZKI01</t>
+          <t>g__JAAZIY01</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>g__JAAZKI01</t>
+          <t>g__JAAZIY01(reject)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG453.fasta</t>
+          <t>RUG524.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04295648289530143</v>
+        <v>6.132015307282886e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>2.226433562800333e-14</v>
+        <v>6.132015307282886e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.226433562800333e-14</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="E11" t="n">
-        <v>2.226433562800333e-14</v>
+        <v>0.267697928950382</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8852196505854292</v>
+        <v>6.132015307282884e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.226433562800333e-14</v>
+        <v>0.1969062131486086</v>
       </c>
       <c r="H11" t="n">
-        <v>2.226433562800333e-14</v>
+        <v>6.132015307282884e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07182386651915801</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8852196505854292</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>g__JAAZKI01</t>
+          <t>g__JAAZIY01</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>g__JAAZKI01</t>
+          <t>g__JAAZIY01(reject)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG484.fasta</t>
+          <t>RUG531.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -983,35 +983,35 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG524.fasta</t>
+          <t>RUG534.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.132015307282886e-14</v>
+        <v>6.132015307282878e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>6.132015307282886e-14</v>
+        <v>6.132015307282878e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2676979289503821</v>
+        <v>0.2676979289503819</v>
       </c>
       <c r="E13" t="n">
-        <v>0.267697928950382</v>
+        <v>6.132015307282883e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>6.132015307282884e-14</v>
+        <v>6.132015307282883e-14</v>
       </c>
       <c r="G13" t="n">
         <v>0.1969062131486086</v>
       </c>
       <c r="H13" t="n">
-        <v>6.132015307282884e-14</v>
+        <v>0.267697928950382</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2676979289503821</v>
+        <v>0.267697928950382</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2676979289503821</v>
+        <v>0.267697928950382</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG531.fasta</t>
+          <t>RUG554.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1071,7 +1071,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG534.fasta</t>
+          <t>RUG612.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1115,7 +1115,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG554.fasta</t>
+          <t>RUG613.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1159,35 +1159,35 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG607.fasta</t>
+          <t>RUG656.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="F17" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>0.1488720769777045</v>
       </c>
       <c r="H17" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1203,35 +1203,35 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG612.fasta</t>
+          <t>RUG677.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.132015307282878e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>6.132015307282878e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2676979289503819</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="E18" t="n">
-        <v>6.132015307282883e-14</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="F18" t="n">
-        <v>6.132015307282883e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1969062131486086</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>0.267697928950382</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0.267697928950382</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="J18" t="n">
-        <v>0.267697928950382</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG613.fasta</t>
+          <t>RUG683.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1291,7 +1291,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG656.fasta</t>
+          <t>RUG692.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1335,7 +1335,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG677.fasta</t>
+          <t>RUG740.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1348,16 +1348,16 @@
         <v>0.3333333333332414</v>
       </c>
       <c r="E21" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.3333333333332414</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5.516850708901935e-14</v>
       </c>
       <c r="I21" t="n">
         <v>0.3333333333332414</v>
@@ -1379,7 +1379,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG683.fasta</t>
+          <t>RUG822.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1423,7 +1423,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG688.fasta</t>
+          <t>RUG850.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1467,35 +1467,35 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG692.fasta</t>
+          <t>hRUG853.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2127819807555444</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1488720769777045</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1511,35 +1511,35 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG740.fasta</t>
+          <t>hRUG866.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>6.132015307282886e-14</v>
       </c>
       <c r="C25" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>6.132015307282886e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="E25" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>0.267697928950382</v>
       </c>
       <c r="F25" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>6.132015307282884e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>0.1969062131486086</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3333333333332414</v>
+        <v>6.132015307282884e-14</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1555,51 +1555,51 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG743.fasta</t>
+          <t>hRUG875.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.696749746272277e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>8.696749746272277e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>8.696749746272277e-14</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4999999999997392</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="F26" t="n">
-        <v>8.696749746272278e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>8.696749746272277e-14</v>
+        <v>0.1488720769777045</v>
       </c>
       <c r="H26" t="n">
-        <v>8.696749746272277e-14</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4999999999997392</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4999999999997392</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>g__JAAZIZ01</t>
+          <t>g__JAAZIY01</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>g__JAAZIZ01(reject)</t>
+          <t>g__JAAZIY01(reject)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG763.fasta</t>
+          <t>hRUG896.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1612,16 +1612,16 @@
         <v>0.3333333333332414</v>
       </c>
       <c r="E27" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.3333333333332414</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="H27" t="n">
-        <v>5.516850708901935e-14</v>
       </c>
       <c r="I27" t="n">
         <v>0.3333333333332414</v>
@@ -1635,930 +1635,6 @@
         </is>
       </c>
       <c r="L27" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>RUG822.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.1488720769777045</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>RUG830.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.1488720769777045</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>RUG850.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.1488720769777045</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>hRUG853.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="C31" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="G31" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>hRUG866.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>6.132015307282886e-14</v>
-      </c>
-      <c r="C32" t="n">
-        <v>6.132015307282886e-14</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.2676979289503821</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6.132015307282884e-14</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.1969062131486086</v>
-      </c>
-      <c r="H32" t="n">
-        <v>6.132015307282884e-14</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.2676979289503821</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.2676979289503821</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>hRUG875.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.1488720769777045</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>hRUG886.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.1488720769777045</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>hRUG896.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="E35" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="G35" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>RUG743.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1.421612280972967e-13</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.421612280972967e-13</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.421612280972967e-13</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.3564741889167008</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.421612280972967e-13</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.2870516221658876</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1.421612280972967e-13</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.3564741889167008</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.3564741889167008</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>g__JAAZIZ01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>RUG763.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="G37" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>RUG822.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.1488720769777045</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>RUG830.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>6.132015307282878e-14</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6.132015307282878e-14</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.2676979289503819</v>
-      </c>
-      <c r="E39" t="n">
-        <v>6.132015307282883e-14</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6.132015307282883e-14</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.1969062131486086</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>RUG850.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.1488720769777045</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>hRUG853.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>6.132015307282878e-14</v>
-      </c>
-      <c r="C41" t="n">
-        <v>6.132015307282878e-14</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.2676979289503819</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6.132015307282883e-14</v>
-      </c>
-      <c r="F41" t="n">
-        <v>6.132015307282883e-14</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.1969062131486086</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>hRUG855.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="C42" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="G42" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>hRUG856.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.1488720769777045</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>hRUG866.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>6.132015307282886e-14</v>
-      </c>
-      <c r="C44" t="n">
-        <v>6.132015307282886e-14</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.2676979289503821</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="F44" t="n">
-        <v>6.132015307282884e-14</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.1969062131486086</v>
-      </c>
-      <c r="H44" t="n">
-        <v>6.132015307282884e-14</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.2676979289503821</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.2676979289503821</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>hRUG875.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.1488720769777045</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>hRUG882.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>4.030465171051646e-14</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4.030465171051646e-14</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.2499999999999597</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.2499999999999597</v>
-      </c>
-      <c r="F46" t="n">
-        <v>4.030465171051646e-14</v>
-      </c>
-      <c r="G46" t="n">
-        <v>4.030465171051646e-14</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.2499999999999597</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.2499999999999597</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.2499999999999597</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>hRUG886.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3.930312958468425e-14</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.1488720769777045</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.2127819807555444</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>hRUG896.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>6.132015307282878e-14</v>
-      </c>
-      <c r="C48" t="n">
-        <v>6.132015307282878e-14</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.2676979289503819</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6.132015307282883e-14</v>
-      </c>
-      <c r="F48" t="n">
-        <v>6.132015307282883e-14</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.1969062131486086</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.267697928950382</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
         <is>
           <t>g__JAAZIY01(reject)</t>
         </is>

--- a/outputs-r202/f__UBA1407.xlsx
+++ b/outputs-r202/f__UBA1407.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1379,35 +1379,35 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG822.fasta</t>
+          <t>RUG805.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="F22" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1488720769777045</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2127819807555444</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG850.fasta</t>
+          <t>RUG822.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1467,35 +1467,35 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hRUG853.fasta</t>
+          <t>RUG850.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="E24" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="F24" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>3.930312958468425e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>5.516850708901935e-14</v>
+        <v>0.1488720769777045</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3333333333332414</v>
+        <v>0.2127819807555444</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1511,35 +1511,35 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>hRUG866.fasta</t>
+          <t>hRUG853.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.132015307282886e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="C25" t="n">
-        <v>6.132015307282886e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2676979289503821</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="E25" t="n">
-        <v>0.267697928950382</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>6.132015307282884e-14</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1969062131486086</v>
+        <v>5.516850708901935e-14</v>
       </c>
       <c r="H25" t="n">
-        <v>6.132015307282884e-14</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2676979289503821</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2676979289503821</v>
+        <v>0.3333333333332414</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1555,35 +1555,35 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>hRUG875.fasta</t>
+          <t>hRUG866.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>6.132015307282886e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>6.132015307282886e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.267697928950382</v>
       </c>
       <c r="F26" t="n">
-        <v>3.930312958468425e-14</v>
+        <v>6.132015307282884e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1488720769777045</v>
+        <v>0.1969062131486086</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2127819807555444</v>
+        <v>6.132015307282884e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2127819807555444</v>
+        <v>0.2676979289503821</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1599,42 +1599,86 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>hRUG875.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3.930312958468425e-14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.930312958468425e-14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2127819807555444</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2127819807555444</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.930312958468425e-14</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1488720769777045</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2127819807555444</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2127819807555444</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.2127819807555444</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>hRUG896.fasta</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.516850708901935e-14</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.3333333333332414</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>g__JAAZIY01</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="B28" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3333333333332414</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.516850708901935e-14</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.3333333333332414</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.3333333333332414</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3333333333332414</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>g__JAAZIY01</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>g__JAAZIY01(reject)</t>
         </is>
